--- a/diodes.xlsx
+++ b/diodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtupi\Documents\AD22\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6F498C-D55B-4D17-BBC3-F4D039E8ECF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7069625B-4967-4F38-BE7B-E6F77B6D9C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="3555" windowWidth="31425" windowHeight="17115" xr2:uid="{5F2E1C98-637A-4B7F-9732-DC35803D3B0E}"/>
+    <workbookView xWindow="22875" yWindow="1665" windowWidth="29010" windowHeight="18015" xr2:uid="{5F2E1C98-637A-4B7F-9732-DC35803D3B0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -320,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -644,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463C1891-5E7F-44DA-950A-52B79896D8D8}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
